--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94743</v>
+        <v>32334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Luiza da Luz</t>
+          <t>Srta. Isadora da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>10107</v>
+        <v>7719.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70813</v>
+        <v>56834</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Pedro Santos</t>
+          <t>Guilherme Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>10655.83</v>
+        <v>4565.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98792</v>
+        <v>87875</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benjamin Barros</t>
+          <t>Esther Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>10630.49</v>
+        <v>9592.459999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12614</v>
+        <v>74206</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Giovanna Porto</t>
+          <t>Fernando da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>4063.31</v>
+        <v>3238.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63014</v>
+        <v>85968</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Sophia Teixeira</t>
+          <t>Vinicius da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>9461.360000000001</v>
+        <v>11215.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41367</v>
+        <v>48704</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Moura</t>
+          <t>Carolina Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>5146.17</v>
+        <v>10116.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62112</v>
+        <v>53662</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafael Cardoso</t>
+          <t>Maysa da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>7911.1</v>
+        <v>8106.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67725</v>
+        <v>96569</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Farias</t>
+          <t>Alana Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>9732.75</v>
+        <v>10560.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16307</v>
+        <v>66228</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatriz Moraes</t>
+          <t>Luna Nascimento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>11471.09</v>
+        <v>9588.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79895</v>
+        <v>17258</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Francisco Costela</t>
+          <t>Pedro Miguel Peixoto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>3127.03</v>
+        <v>3352.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32334</v>
+        <v>10547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Srta. Isadora da Rosa</t>
+          <t>Carlos Eduardo Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>7719.98</v>
+        <v>7209.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56834</v>
+        <v>32297</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guilherme Monteiro</t>
+          <t>Sr. Heitor Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>4565.72</v>
+        <v>11561.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87875</v>
+        <v>70623</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esther Fogaça</t>
+          <t>Luiz Felipe Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>9592.459999999999</v>
+        <v>9538.719999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74206</v>
+        <v>97783</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando da Cruz</t>
+          <t>Dr. Pedro Henrique Silva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,138 +581,138 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3238.17</v>
+        <v>6510.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85968</v>
+        <v>78884</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vinicius da Mota</t>
+          <t>Paulo Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>11215.3</v>
+        <v>12273.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48704</v>
+        <v>66063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carolina Fernandes</t>
+          <t>Kaique Jesus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>10116.69</v>
+        <v>6540.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53662</v>
+        <v>81601</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa da Rosa</t>
+          <t>Caio da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>8106.97</v>
+        <v>7898.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96569</v>
+        <v>21411</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alana Duarte</t>
+          <t>Rebeca Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>10560.77</v>
+        <v>4712.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66228</v>
+        <v>46171</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luna Nascimento</t>
+          <t>Ana Vitória Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>9588.82</v>
+        <v>7489.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17258</v>
+        <v>15447</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pedro Miguel Peixoto</t>
+          <t>Luiz Henrique Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>3352.58</v>
+        <v>5385.76</v>
       </c>
     </row>
   </sheetData>
